--- a/2022/Samsung/February/13.02.2022/SAMSUNG Bank Statement FEB-2022.xlsx
+++ b/2022/Samsung/February/13.02.2022/SAMSUNG Bank Statement FEB-2022.xlsx
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="152">
   <si>
     <t>Date</t>
   </si>
@@ -582,19 +582,28 @@
     <t>Molla Mobile</t>
   </si>
   <si>
-    <t>Tutul</t>
-  </si>
-  <si>
     <t>DSR</t>
   </si>
   <si>
     <t>J=Molla Mobile</t>
   </si>
   <si>
-    <t>Date:13.02.2022</t>
+    <t>13.02.2022</t>
   </si>
   <si>
-    <t>13.02.2022</t>
+    <t>14.02.2022</t>
+  </si>
+  <si>
+    <t>Date:14.02.2022</t>
+  </si>
+  <si>
+    <t>A.M Tipu Boss</t>
+  </si>
+  <si>
+    <t>Tab A 7 Lite</t>
+  </si>
+  <si>
+    <t>N.B: 5 Lac Taka RTGS to NRB A.M Tipu Boss Account. Capital (-) 5 Lac.</t>
   </si>
 </sst>
 </file>
@@ -1905,7 +1914,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="351">
+  <cellXfs count="356">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2730,9 +2739,6 @@
     <xf numFmtId="1" fontId="33" fillId="34" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="33" fillId="42" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2798,6 +2804,9 @@
     </xf>
     <xf numFmtId="1" fontId="33" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2923,6 +2932,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="42" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="42" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="42" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5319,7 +5343,7 @@
     <row r="16" spans="1:7">
       <c r="A16" s="312"/>
       <c r="B16" s="26" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C16" s="252">
         <v>0</v>
@@ -6139,8 +6163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X320"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
@@ -6674,7 +6698,7 @@
     </row>
     <row r="16" spans="1:24" s="13" customFormat="1">
       <c r="A16" s="74" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B16" s="82"/>
       <c r="C16" s="75"/>
@@ -6705,8 +6729,12 @@
       <c r="W16" s="5"/>
     </row>
     <row r="17" spans="1:23" s="13" customFormat="1">
-      <c r="A17" s="74"/>
-      <c r="B17" s="82"/>
+      <c r="A17" s="74" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" s="82">
+        <v>500</v>
+      </c>
       <c r="C17" s="75"/>
       <c r="D17" s="83"/>
       <c r="E17" s="83"/>
@@ -6714,8 +6742,12 @@
       <c r="G17" s="83"/>
       <c r="H17" s="83"/>
       <c r="I17" s="83"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="83"/>
+      <c r="J17" s="83">
+        <v>20</v>
+      </c>
+      <c r="K17" s="83">
+        <v>160</v>
+      </c>
       <c r="L17" s="83"/>
       <c r="M17" s="83"/>
       <c r="N17" s="114"/>
@@ -6723,7 +6755,7 @@
       <c r="P17" s="85"/>
       <c r="Q17" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>680</v>
       </c>
       <c r="R17" s="80"/>
       <c r="S17" s="6"/>
@@ -7210,7 +7242,7 @@
       </c>
       <c r="B37" s="100">
         <f>SUM(B6:B36)</f>
-        <v>3700</v>
+        <v>4200</v>
       </c>
       <c r="C37" s="101">
         <f t="shared" ref="C37:P37" si="1">SUM(C6:C36)</f>
@@ -7242,11 +7274,11 @@
       </c>
       <c r="J37" s="101">
         <f t="shared" si="1"/>
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="K37" s="101">
         <f t="shared" si="1"/>
-        <v>1760</v>
+        <v>1920</v>
       </c>
       <c r="L37" s="101">
         <f t="shared" si="1"/>
@@ -7270,7 +7302,7 @@
       </c>
       <c r="Q37" s="103">
         <f>SUM(Q6:Q36)</f>
-        <v>16035</v>
+        <v>16715</v>
       </c>
       <c r="S37" s="231" t="s">
         <v>45</v>
@@ -9274,6 +9306,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
@@ -9287,12 +9325,6 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9305,8 +9337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView topLeftCell="A43" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46:D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -10852,7 +10884,7 @@
     </row>
     <row r="15" spans="1:97">
       <c r="A15" s="182" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B15" s="48">
         <v>340010</v>
@@ -10961,13 +10993,21 @@
       <c r="CS15" s="138"/>
     </row>
     <row r="16" spans="1:97">
-      <c r="A16" s="182"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="48"/>
+      <c r="A16" s="182" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" s="48">
+        <v>215050</v>
+      </c>
+      <c r="C16" s="51">
+        <v>208370</v>
+      </c>
+      <c r="D16" s="48">
+        <v>680</v>
+      </c>
       <c r="E16" s="48">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>209050</v>
       </c>
       <c r="F16" s="233"/>
       <c r="G16" s="244"/>
@@ -12700,23 +12740,23 @@
       </c>
       <c r="B33" s="257">
         <f>SUM(B5:B32)</f>
-        <v>4916190</v>
+        <v>5131240</v>
       </c>
       <c r="C33" s="258">
         <f>SUM(C5:C32)</f>
-        <v>2469795</v>
+        <v>2678165</v>
       </c>
       <c r="D33" s="257">
         <f>SUM(D5:D32)</f>
-        <v>15435</v>
+        <v>16115</v>
       </c>
       <c r="E33" s="257">
         <f>SUM(E5:E32)</f>
-        <v>2485230</v>
+        <v>2694280</v>
       </c>
       <c r="F33" s="257">
         <f>B33-E33</f>
-        <v>2430960</v>
+        <v>2436960</v>
       </c>
       <c r="G33" s="259"/>
       <c r="H33" s="139"/>
@@ -13130,7 +13170,7 @@
         <v>100</v>
       </c>
       <c r="C37" s="128" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D37" s="207">
         <v>400</v>
@@ -13236,16 +13276,16 @@
         <v>112</v>
       </c>
       <c r="B38" s="119" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C38" s="118" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D38" s="208">
-        <v>1000</v>
+        <v>17920</v>
       </c>
       <c r="E38" s="176" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="F38" s="132"/>
       <c r="G38" s="139"/>
@@ -14291,7 +14331,7 @@
         <v>200000</v>
       </c>
       <c r="E48" s="180" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F48" s="132"/>
       <c r="G48" s="138"/>
@@ -14401,7 +14441,7 @@
         <v>89240</v>
       </c>
       <c r="E49" s="180" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F49" s="132"/>
       <c r="G49" s="138"/>
@@ -14508,10 +14548,10 @@
       </c>
       <c r="C50" s="118"/>
       <c r="D50" s="211">
-        <v>214150</v>
+        <v>200000</v>
       </c>
       <c r="E50" s="179" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="F50" s="132"/>
       <c r="G50" s="138"/>
@@ -14728,10 +14768,10 @@
       </c>
       <c r="C52" s="118"/>
       <c r="D52" s="211">
-        <v>237590</v>
+        <v>269840</v>
       </c>
       <c r="E52" s="179" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F52" s="132"/>
       <c r="G52" s="138"/>
@@ -14948,10 +14988,10 @@
       </c>
       <c r="C54" s="118"/>
       <c r="D54" s="211">
-        <v>148590</v>
+        <v>122180</v>
       </c>
       <c r="E54" s="178" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="F54" s="132"/>
       <c r="G54" s="138"/>
@@ -15058,10 +15098,10 @@
       </c>
       <c r="C55" s="118"/>
       <c r="D55" s="211">
-        <v>172610</v>
+        <v>170000</v>
       </c>
       <c r="E55" s="180" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="F55" s="132"/>
       <c r="G55" s="138"/>
@@ -15281,7 +15321,7 @@
         <v>145070</v>
       </c>
       <c r="E57" s="178" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F57" s="132"/>
       <c r="G57" s="138"/>
@@ -21653,7 +21693,7 @@
       <c r="C119" s="332"/>
       <c r="D119" s="214">
         <f>SUM(D37:D118)</f>
-        <v>2430960</v>
+        <v>2436960</v>
       </c>
       <c r="E119" s="206"/>
       <c r="F119" s="138"/>
@@ -21860,7 +21900,7 @@
       <c r="C121" s="329"/>
       <c r="D121" s="214">
         <f>D119+M121</f>
-        <v>2430960</v>
+        <v>2436960</v>
       </c>
       <c r="E121" s="206"/>
       <c r="F121" s="138"/>
@@ -33131,7 +33171,7 @@
     </row>
     <row r="3" spans="1:17" ht="23.25">
       <c r="A3" s="339" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B3" s="340"/>
       <c r="C3" s="340"/>
@@ -33172,18 +33212,18 @@
       <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="1:17" ht="21.75">
-      <c r="A5" s="287" t="s">
+      <c r="A5" s="352" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="286">
-        <v>15500000</v>
+      <c r="B5" s="249">
+        <v>15000000</v>
       </c>
       <c r="C5" s="40"/>
       <c r="D5" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="288">
-        <v>10216380</v>
+      <c r="E5" s="287">
+        <v>10069310</v>
       </c>
       <c r="F5" s="36"/>
       <c r="G5" s="269"/>
@@ -33199,17 +33239,17 @@
       <c r="Q5" s="7"/>
     </row>
     <row r="6" spans="1:17" ht="21.75">
-      <c r="A6" s="287" t="s">
+      <c r="A6" s="286" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="248">
-        <v>120370</v>
+        <v>125650</v>
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="288">
+      <c r="E6" s="287">
         <v>0</v>
       </c>
       <c r="F6" s="7"/>
@@ -33225,19 +33265,19 @@
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
     </row>
-    <row r="7" spans="1:17" ht="21.75">
-      <c r="A7" s="289" t="s">
+    <row r="7" spans="1:17" ht="23.25">
+      <c r="A7" s="308" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="248">
+      <c r="B7" s="351">
         <v>122250</v>
       </c>
       <c r="C7" s="42"/>
-      <c r="D7" s="302" t="s">
+      <c r="D7" s="301" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="290">
-        <v>403419</v>
+      <c r="E7" s="289">
+        <v>111789</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="261"/>
@@ -33252,16 +33292,16 @@
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
     </row>
-    <row r="8" spans="1:17" ht="21.75">
-      <c r="A8" s="289" t="s">
+    <row r="8" spans="1:17" ht="23.25">
+      <c r="A8" s="308" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="248">
+      <c r="B8" s="351">
         <v>73554</v>
       </c>
       <c r="C8" s="40"/>
       <c r="D8" s="241"/>
-      <c r="E8" s="291"/>
+      <c r="E8" s="290"/>
       <c r="F8" s="7"/>
       <c r="G8" s="238"/>
       <c r="H8" s="7"/>
@@ -33276,11 +33316,11 @@
       <c r="Q8" s="7"/>
     </row>
     <row r="9" spans="1:17" ht="21.75">
-      <c r="A9" s="287"/>
+      <c r="A9" s="286"/>
       <c r="B9" s="248"/>
       <c r="C9" s="41"/>
-      <c r="D9" s="302"/>
-      <c r="E9" s="292"/>
+      <c r="D9" s="301"/>
+      <c r="E9" s="291"/>
       <c r="F9" s="7"/>
       <c r="G9" s="111"/>
       <c r="H9" s="7"/>
@@ -33295,18 +33335,18 @@
       <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="1:17" ht="21.75">
-      <c r="A10" s="287" t="s">
+      <c r="A10" s="286" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="248">
-        <v>16035</v>
+        <v>16715</v>
       </c>
       <c r="C10" s="41"/>
       <c r="D10" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="290">
-        <v>2430960</v>
+      <c r="E10" s="289">
+        <v>2436960</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="238"/>
@@ -33322,7 +33362,7 @@
       <c r="Q10" s="7"/>
     </row>
     <row r="11" spans="1:17" ht="21.75">
-      <c r="A11" s="287" t="s">
+      <c r="A11" s="286" t="s">
         <v>65</v>
       </c>
       <c r="B11" s="248">
@@ -33332,7 +33372,7 @@
       <c r="D11" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="E11" s="288">
+      <c r="E11" s="287">
         <v>86950</v>
       </c>
       <c r="F11" s="7"/>
@@ -33349,19 +33389,19 @@
       <c r="Q11" s="7"/>
     </row>
     <row r="12" spans="1:17" ht="21.75">
-      <c r="A12" s="301" t="s">
+      <c r="A12" s="300" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="249">
         <f>B6+B7+B8-B10</f>
-        <v>300139</v>
+        <v>304739</v>
       </c>
       <c r="C12" s="41"/>
       <c r="D12" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="292">
-        <v>2661430</v>
+      <c r="E12" s="291">
+        <v>2598730</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>45</v>
@@ -33379,13 +33419,13 @@
       <c r="Q12" s="7"/>
     </row>
     <row r="13" spans="1:17" ht="21.75">
-      <c r="A13" s="289"/>
+      <c r="A13" s="288"/>
       <c r="B13" s="248"/>
       <c r="C13" s="41"/>
       <c r="D13" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="E13" s="293">
+      <c r="E13" s="292">
         <v>1000</v>
       </c>
       <c r="F13" s="7"/>
@@ -33402,11 +33442,11 @@
       <c r="Q13" s="7"/>
     </row>
     <row r="14" spans="1:17" ht="21.75">
-      <c r="A14" s="301"/>
+      <c r="A14" s="300"/>
       <c r="B14" s="267"/>
       <c r="C14" s="41"/>
       <c r="D14" s="123"/>
-      <c r="E14" s="292"/>
+      <c r="E14" s="291"/>
       <c r="F14" s="5"/>
       <c r="G14" s="12"/>
       <c r="H14" s="7"/>
@@ -33421,20 +33461,20 @@
       <c r="Q14" s="7"/>
     </row>
     <row r="15" spans="1:17" ht="21.75">
-      <c r="A15" s="287" t="s">
+      <c r="A15" s="286" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="250">
         <f>B5+B6+B7+B8-B10-B14</f>
-        <v>15800139</v>
+        <v>15304739</v>
       </c>
       <c r="C15" s="41"/>
       <c r="D15" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="293">
+      <c r="E15" s="292">
         <f>E5+E6+E10+E11+E12+E7+E13</f>
-        <v>15800139</v>
+        <v>15304739</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="112">
@@ -33453,13 +33493,13 @@
       <c r="Q15" s="7"/>
     </row>
     <row r="16" spans="1:17" ht="21.75">
-      <c r="A16" s="287"/>
+      <c r="A16" s="286"/>
       <c r="B16" s="284" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="41"/>
       <c r="D16" s="41"/>
-      <c r="E16" s="294"/>
+      <c r="E16" s="293"/>
       <c r="F16" s="5"/>
       <c r="G16" s="9"/>
       <c r="H16" s="7"/>
@@ -33495,7 +33535,7 @@
       <c r="Q17" s="7"/>
     </row>
     <row r="18" spans="1:17" ht="21.75">
-      <c r="A18" s="295" t="s">
+      <c r="A18" s="294" t="s">
         <v>87</v>
       </c>
       <c r="B18" s="285">
@@ -33505,8 +33545,8 @@
       <c r="D18" s="268" t="s">
         <v>95</v>
       </c>
-      <c r="E18" s="296">
-        <v>148590</v>
+      <c r="E18" s="295">
+        <v>122180</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="16"/>
@@ -33522,7 +33562,7 @@
       <c r="Q18" s="7"/>
     </row>
     <row r="19" spans="1:17" ht="21.75">
-      <c r="A19" s="297" t="s">
+      <c r="A19" s="296" t="s">
         <v>116</v>
       </c>
       <c r="B19" s="45">
@@ -33532,8 +33572,8 @@
       <c r="D19" s="268" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="296">
-        <v>172610</v>
+      <c r="E19" s="295">
+        <v>170000</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="7"/>
@@ -33548,7 +33588,7 @@
       <c r="Q19" s="7"/>
     </row>
     <row r="20" spans="1:17" ht="21.75">
-      <c r="A20" s="298" t="s">
+      <c r="A20" s="297" t="s">
         <v>122</v>
       </c>
       <c r="B20" s="121">
@@ -33558,7 +33598,7 @@
       <c r="D20" s="268" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="296">
+      <c r="E20" s="295">
         <v>41970</v>
       </c>
       <c r="H20" s="7"/>
@@ -33573,7 +33613,7 @@
       <c r="Q20" s="7"/>
     </row>
     <row r="21" spans="1:17" ht="21.75">
-      <c r="A21" s="298" t="s">
+      <c r="A21" s="297" t="s">
         <v>121</v>
       </c>
       <c r="B21" s="121">
@@ -33583,8 +33623,8 @@
       <c r="D21" s="272" t="s">
         <v>85</v>
       </c>
-      <c r="E21" s="299">
-        <v>237590</v>
+      <c r="E21" s="298">
+        <v>269840</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -33598,17 +33638,17 @@
       <c r="Q21" s="7"/>
     </row>
     <row r="22" spans="1:17" ht="21.75">
-      <c r="A22" s="300" t="s">
+      <c r="A22" s="299" t="s">
         <v>104</v>
       </c>
       <c r="B22" s="280">
-        <v>214150</v>
+        <v>200000</v>
       </c>
       <c r="C22" s="40"/>
       <c r="D22" s="268" t="s">
         <v>137</v>
       </c>
-      <c r="E22" s="296">
+      <c r="E22" s="295">
         <v>145070</v>
       </c>
       <c r="G22" s="35"/>
@@ -33624,7 +33664,7 @@
       <c r="Q22" s="7"/>
     </row>
     <row r="23" spans="1:17" ht="21.75">
-      <c r="A23" s="297" t="s">
+      <c r="A23" s="296" t="s">
         <v>105</v>
       </c>
       <c r="B23" s="45">
@@ -33634,7 +33674,7 @@
       <c r="D23" s="268" t="s">
         <v>126</v>
       </c>
-      <c r="E23" s="296">
+      <c r="E23" s="295">
         <v>162250</v>
       </c>
       <c r="G23" s="35"/>
@@ -33650,7 +33690,7 @@
       <c r="Q23" s="7"/>
     </row>
     <row r="24" spans="1:17" ht="21.75">
-      <c r="A24" s="298" t="s">
+      <c r="A24" s="297" t="s">
         <v>136</v>
       </c>
       <c r="B24" s="121">
@@ -33660,7 +33700,7 @@
       <c r="D24" s="268" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="296">
+      <c r="E24" s="295">
         <v>100000</v>
       </c>
       <c r="G24" s="35"/>
@@ -33676,7 +33716,7 @@
       <c r="Q24" s="7"/>
     </row>
     <row r="25" spans="1:17" ht="21.75">
-      <c r="A25" s="303" t="s">
+      <c r="A25" s="302" t="s">
         <v>135</v>
       </c>
       <c r="B25" s="121">
@@ -33686,7 +33726,7 @@
       <c r="D25" s="268" t="s">
         <v>127</v>
       </c>
-      <c r="E25" s="296">
+      <c r="E25" s="295">
         <v>200000</v>
       </c>
       <c r="G25" s="16"/>
@@ -33702,15 +33742,15 @@
       <c r="Q25" s="7"/>
     </row>
     <row r="26" spans="1:17" ht="22.5" thickBot="1">
-      <c r="A26" s="304" t="s">
-        <v>146</v>
-      </c>
-      <c r="B26" s="305">
+      <c r="A26" s="303" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" s="304">
         <v>50000</v>
       </c>
-      <c r="C26" s="306"/>
-      <c r="D26" s="307"/>
-      <c r="E26" s="308"/>
+      <c r="C26" s="305"/>
+      <c r="D26" s="306"/>
+      <c r="E26" s="307"/>
       <c r="G26" s="16"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -33723,11 +33763,14 @@
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
     </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="5"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="33"/>
+    <row r="27" spans="1:17" ht="24" customHeight="1" thickBot="1">
+      <c r="A27" s="353" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" s="354"/>
+      <c r="C27" s="354"/>
+      <c r="D27" s="354"/>
+      <c r="E27" s="355"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
@@ -36057,7 +36100,8 @@
   <sortState ref="D18:E25">
     <sortCondition ref="D18"/>
   </sortState>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A27:E27"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A17:E17"/>
